--- a/algorithm/reproduccionMayo.xlsx
+++ b/algorithm/reproduccionMayo.xlsx
@@ -1741,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2120,6 +2120,1188 @@
           <t>NumSched</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Instancia 1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1512</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1406</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>147.2645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.1912</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>122.7555</v>
+      </c>
+      <c r="P4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8230</v>
+      </c>
+      <c r="R4" t="n">
+        <v>39</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1875</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1874</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>146.878</v>
+      </c>
+      <c r="X4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3278</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1543</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1495</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>156.5774</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2878</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1545</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1385</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>133.5882</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10473</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.1013</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0998</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>180.0026</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>117704</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-0.1822</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.1772</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>154.1215</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>6926</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Instancia 2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.0743</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.0694</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>175.5926</v>
+      </c>
+      <c r="H5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.1052</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.1005</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>147.1667</v>
+      </c>
+      <c r="P5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8244</v>
+      </c>
+      <c r="R5" t="n">
+        <v>44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.0954</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.09030000000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>170.728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.0743</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.0594</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>180.0027</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>122195</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.0993</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.0895</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>158.6989</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.0391</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.0391</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>180.002</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>102680</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>52</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-0.1101</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.1098</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>180.0008</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>122772</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>6969</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Instancia 3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.0741</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>180.0026</v>
+      </c>
+      <c r="H6" t="n">
+        <v>110509</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.1096</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1093</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>169.1377</v>
+      </c>
+      <c r="P6" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24512</v>
+      </c>
+      <c r="R6" t="n">
+        <v>46</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.1095</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.1095</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>180.0019</v>
+      </c>
+      <c r="X6" t="n">
+        <v>114693</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3294</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.0791</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>180.0025</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>103665</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2919</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.0888</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.0887</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>180.0027</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>119740</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5237</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.0105</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.0105</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>180.0014</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>88044</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.1047</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>180.0019</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>108730</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>10476</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Instancia 4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2076</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>180.0045</v>
+      </c>
+      <c r="H7" t="n">
+        <v>45398</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>112</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.2276</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.2241</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>180.0021</v>
+      </c>
+      <c r="P7" t="n">
+        <v>54152</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10956</v>
+      </c>
+      <c r="R7" t="n">
+        <v>113</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.2573</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>180.0029</v>
+      </c>
+      <c r="X7" t="n">
+        <v>50799</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3278</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.2241</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.2162</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>180.0083</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>50732</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>114</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.1931</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.1875</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>180.0014</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>48282</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2848</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.2095</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.1912</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>180.0038</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41950</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3116</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>114</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.2395</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.2276</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>180.0031</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51486</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>10372</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Instancia 5</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.0868</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0805</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>180.0016</v>
+      </c>
+      <c r="H8" t="n">
+        <v>34304</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>127</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1146</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0856</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>180.003</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40616</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8178</v>
+      </c>
+      <c r="R8" t="n">
+        <v>120</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1124</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0815</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>180.0065</v>
+      </c>
+      <c r="X8" t="n">
+        <v>38268</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1041</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.0886</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>180.0084</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>36499</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.0853</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.0756</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>180.0022</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>37178</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1307</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1261</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>180.0115</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>31906</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>124</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.1219</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.1002</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>180.0022</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>40055</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Instancia 6</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0659</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.0658</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>180.0061</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29219</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>132</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.0968</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.0919</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>180.0068</v>
+      </c>
+      <c r="P9" t="n">
+        <v>31231</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>348</v>
+      </c>
+      <c r="R9" t="n">
+        <v>127</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1122</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.08649999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>180.0037</v>
+      </c>
+      <c r="X9" t="n">
+        <v>27363</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.0526</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>180.0087</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29536</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>132</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.08359999999999999</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.0752</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>180.0016</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>32486</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>129</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.0828</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.0712</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>180.0032</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>26012</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>131</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.1382</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.1382</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>180.0027</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>29272</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Instancia 7</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.1114</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1103</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>180.016</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25390</v>
+      </c>
+      <c r="I10" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>150</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.1061</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0573</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>180.0043</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25606</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>339</v>
+      </c>
+      <c r="R10" t="n">
+        <v>150</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.1207</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>180.0198</v>
+      </c>
+      <c r="X10" t="n">
+        <v>22498</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>92</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/algorithm/reproduccionMayo.xlsx
+++ b/algorithm/reproduccionMayo.xlsx
@@ -1741,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3270,38 +3270,248 @@
       <c r="Z10" t="n">
         <v>150</v>
       </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>-0.1216</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1055</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>180.0237</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>24578</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>194</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.0941</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.0573</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>180.0058</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>25547</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.09320000000000001</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.06660000000000001</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>180.02</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>22120</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>66</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.1226</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.1162</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>180.0031</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>27610</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3501</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Instancia 8</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.0542</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.0525</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>180.0072</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20220</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.0617</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>180.0098</v>
+      </c>
+      <c r="P11" t="n">
+        <v>21588</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>150</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.0589</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>180.0039</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18770</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.0554</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>180.0043</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21692</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.0537</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>180.0044</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23100</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/algorithm/reproduccionMayo.xlsx
+++ b/algorithm/reproduccionMayo.xlsx
@@ -1741,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF11"/>
+  <dimension ref="A1:BF18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3496,22 +3496,1284 @@
       <c r="AP11" t="n">
         <v>150</v>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.0532</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>180.0039</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>18178</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>-0.0617</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>-0.0616</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>180.0031</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>21472</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instancia 9</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.0741</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.07290000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>180.0036</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18814</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.07149999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.06759999999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>180.0231</v>
+      </c>
+      <c r="P12" t="n">
+        <v>19648</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>49</v>
+      </c>
+      <c r="R12" t="n">
+        <v>149</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.0658</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.0619</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>180.0078</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17075</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.07190000000000001</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.0718</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>180.0128</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19858</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>58</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.07240000000000001</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.0723</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>180.0078</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>20790</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.0746</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.0735</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>180.0058</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16750</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-0.0765</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>-0.0718</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>180.0259</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>19276</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Instancia 10</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1096</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.09909999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>180.0257</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19250</v>
+      </c>
+      <c r="I13" t="n">
+        <v>76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>150</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.08840000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.0732</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>180.0305</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20298</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>222</v>
+      </c>
+      <c r="R13" t="n">
+        <v>150</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.1295</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.1276</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>180.0091</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18754</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>112</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.1039</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>180.0046</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20648</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>163</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.1414</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.1331</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>180.0035</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>21318</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.1269</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>180.0038</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>17175</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>64</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>-0.09420000000000001</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>-0.0755</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>180.0089</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>22950</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3527</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Instancia 11</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0643</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>180.0254</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16432</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76</v>
+      </c>
+      <c r="J14" t="n">
+        <v>150</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.0746</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.0711</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>180.0175</v>
+      </c>
+      <c r="P14" t="n">
+        <v>17978</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>234</v>
+      </c>
+      <c r="R14" t="n">
+        <v>150</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.0706</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>180.0123</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15641</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.0625</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.0566</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>180.0214</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>18026</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.0645</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.0615</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>180.0194</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18834</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-0.06710000000000001</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>180.0282</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>15124</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>64</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>-0.0701</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>-0.0696</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>180.0371</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>17715</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3508</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Instancia 12</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0867</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>180.0087</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15249</v>
+      </c>
+      <c r="I15" t="n">
+        <v>94</v>
+      </c>
+      <c r="J15" t="n">
+        <v>150</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.0876</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.08649999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>180.0053</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15776</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>118</v>
+      </c>
+      <c r="R15" t="n">
+        <v>150</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.0901</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.08989999999999999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>180.0072</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14036</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3391</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.0905</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.08989999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>180.0033</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16110</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>162</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.07149999999999999</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.0623</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>180.0115</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>17396</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.0974</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>180.0029</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>13898</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>-0.0871</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>-0.0825</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>180.0185</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>16140</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>205</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Instancia 13</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.08309999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.0481</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>180.0295</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15398</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>150</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0497</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1292.4825</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8206</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>84</v>
+      </c>
+      <c r="R16" t="n">
+        <v>150</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.0578</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.0539</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2210.4406</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2706</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.1169</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.0525</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2061.3882</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7776</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.0934</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.0393</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1744.4652</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10470</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.0622</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>-0.0581</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1108.4976</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5570</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>-0.1148</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>-0.0905</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>180.0242</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>18859</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Instancia 14</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.0808</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.07729999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>180.0463</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13555</v>
+      </c>
+      <c r="I17" t="n">
+        <v>108</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.09030000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0856</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>180.0315</v>
+      </c>
+      <c r="P17" t="n">
+        <v>14482</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>302</v>
+      </c>
+      <c r="R17" t="n">
+        <v>150</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.0735</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>180.0092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12472</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>138</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.08409999999999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.08119999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>180.0231</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14500</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.0646</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>180.0321</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>15407</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.0837</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.0775</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>180.0247</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>12484</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2169</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>-0.0885</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>-0.0882</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>180.0065</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>14055</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instancia 15</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1755</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.1733</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>180.0221</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12179</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5258</v>
+      </c>
+      <c r="J18" t="n">
+        <v>150</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>180.0207</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12685</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6338</v>
+      </c>
+      <c r="R18" t="n">
+        <v>150</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1567</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>180.0136</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11246</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6532</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1493</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>180.0162</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13116</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2850</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1636</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1542</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>180.0349</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>13598</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>68</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1928</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1535</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>180.0126</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>11104</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3640</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
